--- a/public/ValueSet-ConsentExchangeRelations.xlsx
+++ b/public/ValueSet-ConsentExchangeRelations.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T00:45:51-05:00</t>
+    <t>2022-10-31T00:13:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-ConsentExchangeRelations.xlsx
+++ b/public/ValueSet-ConsentExchangeRelations.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T00:13:59-05:00</t>
+    <t>2023-04-11T09:52:12-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-ConsentExchangeRelations.xlsx
+++ b/public/ValueSet-ConsentExchangeRelations.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:52:12-05:00</t>
+    <t>2023-08-09T02:35:23-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -228,10 +228,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/public/ValueSet-ConsentExchangeRelations.xlsx
+++ b/public/ValueSet-ConsentExchangeRelations.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-09T02:35:23-05:00</t>
+    <t>2023-08-09T03:19:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
